--- a/2023/summary/data-request-modes/Mode by County in the Puget Sound Region.xlsx
+++ b/2023/summary/data-request-modes/Mode by County in the Puget Sound Region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\travel-studies\2023\summary\data-request-modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABA6D9F-063D-4C39-BA7E-A017271CEECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8336E72-CD57-4B08-BCF7-E8FA912293C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1238" windowWidth="17115" windowHeight="10876" xr2:uid="{BBA4AD46-4E79-4EBF-880E-322ACFF5159E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>Home County</t>
   </si>
@@ -151,6 +151,73 @@
   </si>
   <si>
     <t>Workers Usual Commute Mode to Work by Home County (2022)</t>
+  </si>
+  <si>
+    <t>Trip Origin County</t>
+  </si>
+  <si>
+    <t>source: PSRC Regional Transportation Plan SoundCast model forecast, 2022</t>
+  </si>
+  <si>
+    <t>Transit Trip Increase</t>
+  </si>
+  <si>
+    <t>Transit Trip Percent Increase</t>
+  </si>
+  <si>
+    <r>
+      <t>Forecasted Growth in Transit: 2018 to 2050:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trips</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Forecasted Growth in Transit: 2018 to 2050: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trips</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -162,7 +229,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +260,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,7 +469,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -449,6 +533,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,6 +543,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,15 +900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C43EA8-D6ED-435D-AF07-5EED1C3C7590}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F29"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
     <col min="2" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="3.5546875" customWidth="1"/>
     <col min="8" max="8" width="16.21875" customWidth="1"/>
@@ -821,23 +927,23 @@
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1337,10 +1443,68 @@
       </c>
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="F28" s="42">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1348,15 +1512,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE8A0F4-A659-4FED-B5ED-CCDB74E5C1E0}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B30" sqref="B30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
@@ -1373,23 +1538,23 @@
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1950,10 +2115,68 @@
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="47">
+        <v>1.9</v>
+      </c>
+      <c r="C30" s="47">
+        <v>1</v>
+      </c>
+      <c r="D30" s="47">
+        <v>1.8</v>
+      </c>
+      <c r="E30" s="48">
+        <v>5</v>
+      </c>
+      <c r="F30" s="49">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
